--- a/data/trans_camb/P07_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P07_R2-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.883562163851519</v>
+        <v>-4.751397148756671</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.523505851390058</v>
+        <v>-3.643200850123103</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.613482045711006</v>
+        <v>-9.527881542508618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.628545521521643</v>
+        <v>-2.245414535338396</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.326749201592946</v>
+        <v>-2.681152507805755</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.333680909858282</v>
+        <v>-1.548522503298398</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.260293598603093</v>
+        <v>-2.487676907006382</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.625567330907525</v>
+        <v>-1.190341269869898</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.158670652265213</v>
+        <v>-4.084247071985515</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.133235508974214</v>
+        <v>3.380854678897445</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.783866975536569</v>
+        <v>4.541506982962287</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.199554535023586</v>
+        <v>-1.002916132479044</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.45021302824351</v>
+        <v>7.141923374133439</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.536633566153879</v>
+        <v>7.229577338261073</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.077056953530564</v>
+        <v>7.100203900218729</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.138131187158673</v>
+        <v>3.832255335063671</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.901788664725546</v>
+        <v>4.847562210068671</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.732532293058296</v>
+        <v>1.654904778232347</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05788475741558689</v>
+        <v>-0.05649993589638539</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04166951424253423</v>
+        <v>-0.04231973849786132</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1141114593729576</v>
+        <v>-0.1136861340968086</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03700593095472451</v>
+        <v>-0.03141738519918404</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03256983907513056</v>
+        <v>-0.03664481744702569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01949591491054723</v>
+        <v>-0.02144763789531238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02923678834522268</v>
+        <v>-0.03112514517627122</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02054710159239288</v>
+        <v>-0.01499484582444134</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.05332262090752991</v>
+        <v>-0.0525995614498439</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.03898821003544962</v>
+        <v>0.04157065962381114</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05929601086304969</v>
+        <v>0.05576450187167856</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01540748054835948</v>
+        <v>-0.01312543365665999</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1088582278224416</v>
+        <v>0.1058296776063978</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1125749890794537</v>
+        <v>0.1079272590045521</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1061715656537346</v>
+        <v>0.1075133787959843</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05528234375762245</v>
+        <v>0.05036667041746511</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06508378390003626</v>
+        <v>0.06463433762198384</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.02381368782652098</v>
+        <v>0.02199221200118977</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>3.797022408945694</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.009810234004285</v>
+        <v>4.009810234004274</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.514068707904734</v>
+        <v>-5.352568019186214</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.143378233464009</v>
+        <v>-3.463188846698888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.141757226227973</v>
+        <v>-2.118579794781051</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4081789082557525</v>
+        <v>0.3624506176688673</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.795154981205008</v>
+        <v>3.609785790984746</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.132661813922317</v>
+        <v>3.165506788993798</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.494227575547381</v>
+        <v>-1.43664301638334</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.068246688552402</v>
+        <v>1.181552897118305</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.507213575587556</v>
+        <v>1.592352758840965</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.335129714737395</v>
+        <v>1.331619856690486</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.503135892561587</v>
+        <v>3.066541111358421</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.218038140568328</v>
+        <v>4.274188188899767</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.593912658558594</v>
+        <v>8.30095954868316</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.71164524050275</v>
+        <v>11.28588708072644</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.97138881605107</v>
+        <v>10.8734971885493</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.929828153175151</v>
+        <v>3.755221673826304</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.495672362584879</v>
+        <v>6.436592514774743</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.481559238064795</v>
+        <v>6.759885603981342</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.0497380349712092</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.05252538967822303</v>
+        <v>0.05252538967822288</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06412858356396826</v>
+        <v>-0.06242529801443768</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.03676288652055811</v>
+        <v>-0.04060144345626606</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.02489477881143027</v>
+        <v>-0.02459004280696053</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.005524972828584486</v>
+        <v>0.005749559173492215</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05422850452760745</v>
+        <v>0.05240648655517859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04403064648469862</v>
+        <v>0.04527773591852309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01944009334975973</v>
+        <v>-0.01873892841853984</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01399125957436957</v>
+        <v>0.01475550549483952</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.01894458536792955</v>
+        <v>0.02088164857493351</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.01600790908405008</v>
+        <v>0.0157068325278039</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04249723892367444</v>
+        <v>0.03738670183666945</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.05127530821305402</v>
+        <v>0.05215015468149648</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1290211339888026</v>
+        <v>0.1271321631138826</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1782362597866897</v>
+        <v>0.1714341969504632</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.166844318967136</v>
+        <v>0.1658608578989587</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05154870800295969</v>
+        <v>0.05039216494472113</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08738617811596802</v>
+        <v>0.08521895858665848</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.08679135322762291</v>
+        <v>0.09149200259112455</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.194441867356289</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.316466217676006</v>
+        <v>3.316466217676017</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.512744292598065</v>
+        <v>-4.540215131745976</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.735850097636162</v>
+        <v>-3.941280895391021</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.000169450166672</v>
+        <v>-3.087359290103154</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.237996738048885</v>
+        <v>-6.311269771614171</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.05651492701931614</v>
+        <v>-0.3422601083683954</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.309574832456138</v>
+        <v>1.269520278244748</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.906680844394007</v>
+        <v>-3.981226004880253</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8551915049885817</v>
+        <v>-0.8406969973616624</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.434451977086098</v>
+        <v>0.3210654403953506</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.616125353156386</v>
+        <v>3.39213250834298</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.109494708261889</v>
+        <v>3.912792564027639</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.798074900527431</v>
+        <v>4.823923207471965</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.294805622172031</v>
+        <v>3.134638323659325</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.815217063351763</v>
+        <v>8.806252611487407</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.505943952487529</v>
+        <v>9.422472622762641</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.2210883274341</v>
+        <v>2.400278933911715</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.345921891985223</v>
+        <v>5.480737842923133</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.317032342311347</v>
+        <v>6.226951646036747</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.02782484259131321</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.04205176352081518</v>
+        <v>0.04205176352081532</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05220577439344286</v>
+        <v>-0.05284430467545573</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04329637265917866</v>
+        <v>-0.04581100142408416</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03483938587668499</v>
+        <v>-0.03588059773252928</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.08326394191010489</v>
+        <v>-0.08215364467637561</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0008303128472970183</v>
+        <v>-0.0046163825550937</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01729416337851032</v>
+        <v>0.01641716378240769</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04822435379537812</v>
+        <v>-0.04940960887459503</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01053773780067409</v>
+        <v>-0.01044311942472476</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.005689724090768761</v>
+        <v>0.003896924977327951</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.04420233598101142</v>
+        <v>0.04113903397805525</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05067066572622752</v>
+        <v>0.04798806512472167</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.05857027626281597</v>
+        <v>0.05873901793843232</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.04655498459673877</v>
+        <v>0.04444917804130499</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1243594072004859</v>
+        <v>0.1225986539922223</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1342475732916378</v>
+        <v>0.1330327332634297</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02886608745299552</v>
+        <v>0.031200260038832</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.06892031659377799</v>
+        <v>0.07131570616782806</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.08248717950799636</v>
+        <v>0.08067356040552372</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>3.414062512076976</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.620617859899709</v>
+        <v>1.620617859899698</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.6864332001094708</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.828761166657376</v>
+        <v>-3.748097209840748</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.543257239958815</v>
+        <v>-3.668728278669353</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.31364121186017</v>
+        <v>-7.645686821197603</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.907263292425817</v>
+        <v>-2.098326682554536</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.2211906236230572</v>
+        <v>-0.3120050296883756</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.847529840805016</v>
+        <v>-1.919101215541622</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.755804107959541</v>
+        <v>-1.890065540794949</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.148056939177401</v>
+        <v>-1.180619561998437</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.650354652831653</v>
+        <v>-3.653552051217449</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.840023026401647</v>
+        <v>2.851367973728719</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.68262610964267</v>
+        <v>2.800844459214364</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.7643013240344072</v>
+        <v>-1.022071891389236</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.471391165266184</v>
+        <v>5.484273208226222</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.268184376866498</v>
+        <v>7.188200278400542</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.534947337749232</v>
+        <v>5.128187036311686</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.424197126527187</v>
+        <v>3.127869820523407</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.199006965230231</v>
+        <v>4.260295573580558</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.236512224425026</v>
+        <v>0.9618940734794715</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.04639554044344191</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02202345188360334</v>
+        <v>0.02202345188360318</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.008659033013820889</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04381041034648277</v>
+        <v>-0.04299068415182163</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04067191411685594</v>
+        <v>-0.0423076487036799</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08378712161107166</v>
+        <v>-0.08870079547769016</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02520662960000163</v>
+        <v>-0.02762637678326682</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.003300118423418161</v>
+        <v>-0.003888775907900414</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02391833163249476</v>
+        <v>-0.02533955119119098</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02181230472395738</v>
+        <v>-0.02323812386413308</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01405730995475937</v>
+        <v>-0.014773769127491</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04561072264508286</v>
+        <v>-0.0447544701848521</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03379176531660816</v>
+        <v>0.03439062805060585</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.03227718497325614</v>
+        <v>0.03338227538051083</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.008793949362415739</v>
+        <v>-0.01228848655407578</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07567843520983049</v>
+        <v>0.07637212418856444</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1006458993177468</v>
+        <v>0.1001763740166397</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07761556468181346</v>
+        <v>0.07288549945221479</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04392912406198275</v>
+        <v>0.04012073231081874</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05407211337687698</v>
+        <v>0.05458791138870624</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.01595873817643422</v>
+        <v>0.0122828790775599</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.05175881405700133</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.70982368008481</v>
+        <v>-1.709823680084799</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.949458280009364</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.869942251608868</v>
+        <v>-2.947186857841732</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.857358421103167</v>
+        <v>-1.750774893379327</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.595022482757679</v>
+        <v>-3.447127029763122</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.4673868083883883</v>
+        <v>-0.2695084010165609</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.605083071449401</v>
+        <v>2.796015866045442</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.368337736629527</v>
+        <v>2.391808185619827</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.9778773219415526</v>
+        <v>-1.104235459713679</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.995222602361803</v>
+        <v>0.9175618182152133</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.04454520230127218</v>
+        <v>-0.05533964967330347</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7166099978352154</v>
+        <v>0.7569430966741734</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.718929588290974</v>
+        <v>1.701230864888204</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03072603210291169</v>
+        <v>0.135019846331508</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.966693163806986</v>
+        <v>4.059595905892797</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.011605010673041</v>
+        <v>7.007614960144499</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.441635638579809</v>
+        <v>6.219359263563097</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.981579169836897</v>
+        <v>1.776003149253997</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.888597903509852</v>
+        <v>3.764027985446765</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.665229559971237</v>
+        <v>2.716932707653899</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.0006135748042023734</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.02026910293140127</v>
+        <v>-0.02026910293140113</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.02731762621855413</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03394748687907005</v>
+        <v>-0.03464539343316076</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02189533509163721</v>
+        <v>-0.02063031039485649</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04226811675384717</v>
+        <v>-0.040783488121743</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.006433875694953154</v>
+        <v>-0.003760649228553686</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0359366227709917</v>
+        <v>0.03839084221396039</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03233393647727799</v>
+        <v>0.03288969202502806</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01249959216067354</v>
+        <v>-0.01405044384841364</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.01275237763029156</v>
+        <v>0.01161686261651099</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.0005688828410350891</v>
+        <v>-0.0004615158580777185</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.008562620211033354</v>
+        <v>0.00901433955645904</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.02055472522155873</v>
+        <v>0.02048460774066576</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.0004881033499601645</v>
+        <v>0.001465743515710312</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.05628314861550753</v>
+        <v>0.05794584680923093</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0988481293855614</v>
+        <v>0.09914486137131832</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0919103776955672</v>
+        <v>0.08880190607286811</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02570735650646159</v>
+        <v>0.02286806916911856</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.05040208451051723</v>
+        <v>0.0485052685496202</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.03468538616029625</v>
+        <v>0.03546582058937867</v>
       </c>
     </row>
     <row r="34">
